--- a/data/trans_dic/P40_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P40_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1096018890386929</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1629084333418932</v>
+        <v>0.1629084333418931</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1372671273335108</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09278190004517425</v>
+        <v>0.09156033777565666</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08171092379307177</v>
+        <v>0.08200350421270415</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06970803306606876</v>
+        <v>0.07119603315073102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1143788263228457</v>
+        <v>0.1133516426477604</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.12460000952401</v>
+        <v>0.1235326463527782</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09166054564099461</v>
+        <v>0.09383488239646699</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07918043535624394</v>
+        <v>0.07663250016798991</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1366266655646886</v>
+        <v>0.1369094080737264</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1121784585843373</v>
+        <v>0.1145051987023047</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09477175250421276</v>
+        <v>0.0963994348496397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08232665861653421</v>
+        <v>0.08070359072236664</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1316083785610345</v>
+        <v>0.1303263510557408</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1532399589280923</v>
+        <v>0.1537690500872161</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1471622819124493</v>
+        <v>0.1477921656822086</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1295780315654253</v>
+        <v>0.1286381034807996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1735034589005384</v>
+        <v>0.1712053022880228</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2102134570547677</v>
+        <v>0.2128304469250533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1759244860887527</v>
+        <v>0.1745011555485078</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1491209329193807</v>
+        <v>0.1468367297718269</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1947961186358501</v>
+        <v>0.196713285468309</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1619014131030465</v>
+        <v>0.1643580144233994</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1453531587020983</v>
+        <v>0.1449738553781315</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1275110393367193</v>
+        <v>0.1262733662925303</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.172004662625292</v>
+        <v>0.1727663724995879</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09230950348820147</v>
+        <v>0.0884645940149443</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08697185597477694</v>
+        <v>0.08416057988665433</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.07956532296946225</v>
+        <v>0.07961855703632253</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.112645974461143</v>
+        <v>0.1136086794497244</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1325296755643899</v>
+        <v>0.1342165531742266</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1038979162988666</v>
+        <v>0.1039668877108829</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1096983494816878</v>
+        <v>0.1116041176593916</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1510236793179607</v>
+        <v>0.1537430433840096</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1205045721651019</v>
+        <v>0.120942673332722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1073409305684951</v>
+        <v>0.1074696576460737</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.105858926954393</v>
+        <v>0.1049302034217586</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1406433501709702</v>
+        <v>0.1393475090313758</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1590033386556328</v>
+        <v>0.1601943713527421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1547810134959232</v>
+        <v>0.1574447081959465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1452325103089442</v>
+        <v>0.1495467377900776</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1733554410547574</v>
+        <v>0.1735649966039331</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2130870545652881</v>
+        <v>0.2158049519665379</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1877264918371459</v>
+        <v>0.1902295623488443</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1905622497866106</v>
+        <v>0.1963011575548473</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2169763511155227</v>
+        <v>0.2158100071014763</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.170858555682981</v>
+        <v>0.1726429791821769</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1595825391027021</v>
+        <v>0.1595150316445402</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1578133663062265</v>
+        <v>0.1559505683663877</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1829373463818832</v>
+        <v>0.1837503006044498</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3005261850217886</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3030982413700268</v>
+        <v>0.3030982413700269</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1989839809807139</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1396355241927408</v>
+        <v>0.1430806536514325</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1821486640416397</v>
+        <v>0.1774470633631433</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1449848020573691</v>
+        <v>0.1502140320813885</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1759422158920856</v>
+        <v>0.1750150167557274</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2192541071025534</v>
+        <v>0.2207791460611099</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1794380907055597</v>
+        <v>0.1778168667151236</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2291525752472954</v>
+        <v>0.223424647673495</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2496905213140457</v>
+        <v>0.2481682089914755</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1689333060246017</v>
+        <v>0.1705762697130503</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1902101579289382</v>
+        <v>0.1924620730989586</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1796000427532907</v>
+        <v>0.1777092502862847</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2086100221539761</v>
+        <v>0.2093884085125</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2038582550574504</v>
+        <v>0.2080711874984741</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2483528522909017</v>
+        <v>0.2480127609863964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2146462332011513</v>
+        <v>0.2196635863101845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2503066767288787</v>
+        <v>0.2530010561242306</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3561984816211004</v>
+        <v>0.3599275284675146</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2876401949080276</v>
+        <v>0.2860220450614414</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3829955845601758</v>
+        <v>0.3754417789386846</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3623699464189163</v>
+        <v>0.3618496221748594</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2309760833591827</v>
+        <v>0.2289772107390889</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2484074379314236</v>
+        <v>0.2506263377145574</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2426271838203107</v>
+        <v>0.2427730847286699</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2687085323633767</v>
+        <v>0.270508269821926</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1739795139143992</v>
+        <v>0.1717797788559947</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1943174995953224</v>
+        <v>0.1922814889996689</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1554828681079526</v>
+        <v>0.1569462956397786</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1933594995660171</v>
+        <v>0.194001770804827</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2098247370873616</v>
+        <v>0.2142550566796316</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1838675983633126</v>
+        <v>0.1816777100798903</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1698181334897911</v>
+        <v>0.1713138561082763</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2112044123879112</v>
+        <v>0.2122249221766374</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1965321519884699</v>
+        <v>0.1971428032506208</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1946231109347789</v>
+        <v>0.1957131041066212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1702497924382651</v>
+        <v>0.1717829321604937</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2098923769482192</v>
+        <v>0.2091365527946551</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2176958221201762</v>
+        <v>0.2157321476770155</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2477036797365658</v>
+        <v>0.2425835304569381</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2013585961921775</v>
+        <v>0.2020406203136332</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.241073694094761</v>
+        <v>0.2409157107108089</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2739126631543217</v>
+        <v>0.2789521288351391</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2464638400676823</v>
+        <v>0.2452503461791451</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2301574286153627</v>
+        <v>0.2316063413025657</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.26125144407017</v>
+        <v>0.260425373102348</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2345578116163659</v>
+        <v>0.2328571394311887</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2360085709513362</v>
+        <v>0.2361741796908189</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2076257461979521</v>
+        <v>0.2078858908682676</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2421652237940057</v>
+        <v>0.2436080315748745</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2261795468285412</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2228570477455857</v>
+        <v>0.2228570477455856</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3084995632502685</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1650356091001897</v>
+        <v>0.1639144170896872</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1327347234108367</v>
+        <v>0.1327350799234366</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1955490036285041</v>
+        <v>0.1924867915503201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1898300088275354</v>
+        <v>0.1902525330668336</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2687924837885143</v>
+        <v>0.2694675133567936</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3141526240142285</v>
+        <v>0.3134352071526852</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2867917134423489</v>
+        <v>0.285443211209204</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3503566549832816</v>
+        <v>0.3461044811244614</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2428460456103107</v>
+        <v>0.2422601674804685</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2513491718056156</v>
+        <v>0.2518876386295427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2523627151049922</v>
+        <v>0.252854366647866</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2915952614096516</v>
+        <v>0.2918602146911086</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.250389793483659</v>
+        <v>0.2521180570998232</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1973430330353146</v>
+        <v>0.1984281161493625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2611942222930649</v>
+        <v>0.2607964446392501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2590994775944344</v>
+        <v>0.2595209469229853</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3468571688424673</v>
+        <v>0.350452425946009</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3852039838332177</v>
+        <v>0.382528476046534</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.35542951785278</v>
+        <v>0.3562929278925523</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4054550189745915</v>
+        <v>0.4003382510543724</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3034001427464229</v>
+        <v>0.3027391996152439</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3029322387582551</v>
+        <v>0.3020759144608554</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3022234961433476</v>
+        <v>0.3016761530656147</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3335330224191008</v>
+        <v>0.3342791571119411</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.05636561164198439</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.08251293188821714</v>
+        <v>0.08251293188821712</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3619284736448307</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02226016433829279</v>
+        <v>0.02416650625531541</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01265699764904654</v>
+        <v>0.01295068414175619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03433890724604506</v>
+        <v>0.03387304641419556</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.04525900975133032</v>
+        <v>0.04743740820559729</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3347801379605738</v>
+        <v>0.3364883165819145</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3115314750168671</v>
+        <v>0.3134134462655969</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.282671426803647</v>
+        <v>0.2830496060224952</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3003299263566454</v>
+        <v>0.3025995222628139</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2784043862755102</v>
+        <v>0.2779330347593632</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2580907949602603</v>
+        <v>0.256353486740122</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2343211482353007</v>
+        <v>0.2331241596880274</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2490024811493998</v>
+        <v>0.250553270060018</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07010974628148041</v>
+        <v>0.07082489932697861</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06845077860497677</v>
+        <v>0.0632306097262164</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09074280169238939</v>
+        <v>0.08748092091899921</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1350068283954377</v>
+        <v>0.1397034586001318</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3880284416504755</v>
+        <v>0.3884370487280157</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3713429814253432</v>
+        <v>0.3715575600473471</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3421158901883102</v>
+        <v>0.3427502156669219</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3575739769519949</v>
+        <v>0.3619162779009713</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3247645887918101</v>
+        <v>0.3247687831378741</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3073297761887512</v>
+        <v>0.3063014394629296</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2846237465717728</v>
+        <v>0.2836533397747416</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3020937239642301</v>
+        <v>0.3017590281309143</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.159514085111418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.185428679733532</v>
+        <v>0.1854286797335319</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2848727258022039</v>
@@ -1513,7 +1513,7 @@
         <v>0.2060127517919698</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2325820002591517</v>
+        <v>0.2325820002591516</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1463998779001856</v>
+        <v>0.1474284519191562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1553739841555903</v>
+        <v>0.1547591166617174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1467082083263169</v>
+        <v>0.1477232646444852</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1728540898301256</v>
+        <v>0.1726935105146929</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2692113834592104</v>
+        <v>0.2699159679577504</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2542037542700041</v>
+        <v>0.2531229930798637</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.233898561839999</v>
+        <v>0.2351151347394637</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2647411051218403</v>
+        <v>0.2656738906914179</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2118714733364916</v>
+        <v>0.2133503661307183</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2097107644439092</v>
+        <v>0.2107594450344805</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1948577974523366</v>
+        <v>0.1963671273127864</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.223857123689172</v>
+        <v>0.223281890737028</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1724263727894921</v>
+        <v>0.1730056921426555</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1828891314099303</v>
+        <v>0.1809939597518556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1714389098325629</v>
+        <v>0.172826876618957</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1994041546930506</v>
+        <v>0.1986446493504579</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3013747344789562</v>
+        <v>0.2999438071314828</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2852178536977329</v>
+        <v>0.2842406746254114</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2679613756799125</v>
+        <v>0.2673988265920205</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2900047850666007</v>
+        <v>0.2893225335588743</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2331588659212009</v>
+        <v>0.233477270662541</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2303164198023657</v>
+        <v>0.23129270535169</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2152584708544457</v>
+        <v>0.2169268905103938</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2415294355227772</v>
+        <v>0.2417449928309426</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43958</v>
+        <v>43379</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35246</v>
+        <v>35372</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29846</v>
+        <v>30483</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>62979</v>
+        <v>62413</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>38212</v>
+        <v>37885</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28625</v>
+        <v>29304</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27244</v>
+        <v>26367</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>66730</v>
+        <v>66868</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>87550</v>
+        <v>89366</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>70476</v>
+        <v>71687</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>63575</v>
+        <v>62322</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>136745</v>
+        <v>135413</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>72601</v>
+        <v>72852</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63478</v>
+        <v>63750</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55480</v>
+        <v>55077</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>95534</v>
+        <v>94269</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>64468</v>
+        <v>65271</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>54940</v>
+        <v>54495</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>51308</v>
+        <v>50522</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95141</v>
+        <v>96077</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>126357</v>
+        <v>128274</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>108091</v>
+        <v>107809</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>98468</v>
+        <v>97512</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>178718</v>
+        <v>179509</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>33790</v>
+        <v>32383</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>36164</v>
+        <v>34995</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29863</v>
+        <v>29883</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>54432</v>
+        <v>54897</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>49283</v>
+        <v>49910</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>34907</v>
+        <v>34930</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>40402</v>
+        <v>41103</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>63905</v>
+        <v>65055</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>88922</v>
+        <v>89246</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>80697</v>
+        <v>80794</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>78719</v>
+        <v>78028</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>127473</v>
+        <v>126298</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>58204</v>
+        <v>58640</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64359</v>
+        <v>65467</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54509</v>
+        <v>56128</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>83767</v>
+        <v>83869</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>79240</v>
+        <v>80250</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>63071</v>
+        <v>63912</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>70184</v>
+        <v>72297</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>91812</v>
+        <v>91318</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>126080</v>
+        <v>127396</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>119971</v>
+        <v>119920</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>117353</v>
+        <v>115968</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>165806</v>
+        <v>166543</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>75597</v>
+        <v>77462</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>113976</v>
+        <v>111034</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>75539</v>
+        <v>78263</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>82976</v>
+        <v>82539</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36787</v>
+        <v>37043</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46316</v>
+        <v>45898</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>37818</v>
+        <v>36873</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>46816</v>
+        <v>46531</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>119803</v>
+        <v>120968</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>168116</v>
+        <v>170107</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>123214</v>
+        <v>121917</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>137497</v>
+        <v>138010</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>110367</v>
+        <v>112648</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>155402</v>
+        <v>155189</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111833</v>
+        <v>114447</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>118048</v>
+        <v>119318</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59764</v>
+        <v>60389</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>74245</v>
+        <v>73827</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>63207</v>
+        <v>61961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67943</v>
+        <v>67846</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>163802</v>
+        <v>162384</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>219554</v>
+        <v>221515</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>166453</v>
+        <v>166554</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>177108</v>
+        <v>178294</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>215281</v>
+        <v>212559</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>222320</v>
+        <v>219991</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177014</v>
+        <v>178680</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>218853</v>
+        <v>219580</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>149875</v>
+        <v>153039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>139875</v>
+        <v>138209</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>139109</v>
+        <v>140334</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>181892</v>
+        <v>182770</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>383567</v>
+        <v>384759</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>370726</v>
+        <v>372803</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>333288</v>
+        <v>336290</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>418327</v>
+        <v>416820</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>269375</v>
+        <v>266945</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>283400</v>
+        <v>277542</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>229243</v>
+        <v>230019</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>272858</v>
+        <v>272679</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>195652</v>
+        <v>199251</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>187494</v>
+        <v>186571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>188537</v>
+        <v>189724</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>224993</v>
+        <v>224281</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>457781</v>
+        <v>454462</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>449559</v>
+        <v>449874</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>406457</v>
+        <v>406967</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>482648</v>
+        <v>485524</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>57854</v>
+        <v>57461</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66733</v>
+        <v>66734</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>120340</v>
+        <v>118456</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>107817</v>
+        <v>108057</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>152876</v>
+        <v>153260</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>238628</v>
+        <v>238083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>210482</v>
+        <v>209492</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>291094</v>
+        <v>287561</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>223250</v>
+        <v>222711</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>317291</v>
+        <v>317970</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>340517</v>
+        <v>341181</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>407888</v>
+        <v>408258</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87775</v>
+        <v>88381</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>99216</v>
+        <v>99761</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>160738</v>
+        <v>160494</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>147159</v>
+        <v>147399</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>197276</v>
+        <v>199321</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>292598</v>
+        <v>290566</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>260856</v>
+        <v>261490</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>336872</v>
+        <v>332621</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>278918</v>
+        <v>278310</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>382407</v>
+        <v>381326</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>407795</v>
+        <v>407057</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>466551</v>
+        <v>467594</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6638</v>
+        <v>7206</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3263</v>
+        <v>3339</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9828</v>
+        <v>9695</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>10737</v>
+        <v>11253</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>417461</v>
+        <v>419592</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>342758</v>
+        <v>344828</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>302698</v>
+        <v>303103</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>253563</v>
+        <v>255479</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>430183</v>
+        <v>429454</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>350498</v>
+        <v>348138</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>317988</v>
+        <v>316364</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>269298</v>
+        <v>270976</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20907</v>
+        <v>21120</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17647</v>
+        <v>16301</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25972</v>
+        <v>25038</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>32027</v>
+        <v>33142</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>483861</v>
+        <v>484370</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>408564</v>
+        <v>408800</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>366354</v>
+        <v>367033</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>301893</v>
+        <v>305559</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>501817</v>
+        <v>501824</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>417366</v>
+        <v>415970</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>386252</v>
+        <v>384935</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>326717</v>
+        <v>326355</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>478342</v>
+        <v>481703</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>524784</v>
+        <v>522708</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>493612</v>
+        <v>497027</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>595046</v>
+        <v>594493</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>908948</v>
+        <v>911327</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>896562</v>
+        <v>892750</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>818957</v>
+        <v>823217</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>962438</v>
+        <v>965829</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1407611</v>
+        <v>1417436</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1447948</v>
+        <v>1455189</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1337877</v>
+        <v>1348240</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1584431</v>
+        <v>1580360</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>563380</v>
+        <v>565273</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>617718</v>
+        <v>611317</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>576820</v>
+        <v>581490</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>686444</v>
+        <v>683829</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>1017542</v>
+        <v>1012711</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1005947</v>
+        <v>1002501</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>938222</v>
+        <v>936253</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1054281</v>
+        <v>1051801</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1549038</v>
+        <v>1551153</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1590220</v>
+        <v>1596960</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1477947</v>
+        <v>1489402</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1709514</v>
+        <v>1711039</v>
       </c>
     </row>
     <row r="32">
